--- a/11-CollaborationList/ZZ2-consider.xlsx
+++ b/11-CollaborationList/ZZ2-consider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050110968525/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC32FA19-D603-CA45-962A-46B5F8993CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{FC32FA19-D603-CA45-962A-46B5F8993CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECC132BD-331E-E942-9073-1D9083A1CEBE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16180" windowWidth="57600" windowHeight="16220" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{B041FEAE-BE1E-B04B-A3B2-E9C9448B7A33}"/>
   </bookViews>
   <sheets>
     <sheet name="ZZ2-consider" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Title</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Dr.</t>
-  </si>
-  <si>
     <t>Prof.</t>
   </si>
   <si>
@@ -100,24 +97,12 @@
     <t>drpremrajp@nitc.ac.in</t>
   </si>
   <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Jurj</t>
-  </si>
-  <si>
-    <t>P.Jurj</t>
-  </si>
-  <si>
     <t>Imperial</t>
   </si>
   <si>
     <t>London</t>
   </si>
   <si>
-    <t>paul.jurj13@imperial.ac.uk</t>
-  </si>
-  <si>
     <t>Mx</t>
   </si>
   <si>
@@ -155,6 +140,12 @@
   </si>
   <si>
     <t>medhi.tarisien@u-bordeaux.fr</t>
+  </si>
+  <si>
+    <t>Ugo</t>
+  </si>
+  <si>
+    <t>Amaldi</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1049,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1137,28 +1128,28 @@
     </row>
     <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1166,28 +1157,28 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1195,7 +1186,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -1207,57 +1198,39 @@
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
         <v>41</v>
       </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{3546A31E-41FF-974D-A2D7-E04F3ECB43DD}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{EB079921-DB37-CC4C-8D06-8DB32C5ED7C4}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{DDF82930-E138-ED4B-9DD6-2AC3889CEEEC}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{6246E5EC-3C72-6345-A772-2FF68B3D2005}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{DDF82930-E138-ED4B-9DD6-2AC3889CEEEC}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{6246E5EC-3C72-6345-A772-2FF68B3D2005}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>